--- a/内部客户满意度考核表－互娱运营部0329.xlsx
+++ b/内部客户满意度考核表－互娱运营部0329.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="15480" windowHeight="9285"/>
@@ -11,12 +11,12 @@
     <sheet name="运营服务Q满意度调查问卷" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -322,6 +322,14 @@
 3、能保证重要需求及时、按要求完成，非重要需求与客户协商排期完成；对需求提交后的遗留问题，能及时修改（合格）
 4、满足经以下其一：常有需求不能及时完成；不理解需求、沟通效果查；需求完成质量较差，需多次返工（较差）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dffasf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfadfa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1066,6 +1074,16 @@
     <row r="19" spans="1:1">
       <c r="A19" s="17" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1412,23 +1430,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内部客户满意度考核表－互娱运营部0329.xlsx
+++ b/内部客户满意度考核表－互娱运营部0329.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>dfadfa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfsadfasfasd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1084,6 +1088,11 @@
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1430,6 +1439,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="B17:B19"/>
@@ -1440,13 +1456,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
